--- a/carganolectiva-masivo.xlsx
+++ b/carganolectiva-masivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\acarganolectiva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3019E-1C40-4468-A665-96949FAA18D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71679CF4-8D83-4AA4-A410-818F99061095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="61">
   <si>
     <t>HORAE</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>VILCA ARANA MIRIAM</t>
+  </si>
+  <si>
+    <t>FALTA</t>
   </si>
 </sst>
 </file>
@@ -317,6 +320,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -896,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:G108"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,37 +1285,49 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="2">
-        <v>0.75</v>
+        <v>0.34375</v>
       </c>
       <c r="G21" s="2">
-        <v>0.90625</v>
+        <v>0.40625</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2">
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="G22" s="2">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -1319,49 +1339,49 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2">
         <v>0.75</v>
       </c>
       <c r="G23" s="2">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="G24" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="G25" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -1376,10 +1396,10 @@
         <v>56</v>
       </c>
       <c r="F26" s="2">
-        <v>0.625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G26" s="2">
-        <v>0.78125</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1394,10 +1414,10 @@
         <v>56</v>
       </c>
       <c r="F27" s="2">
-        <v>0.78125</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="G27" s="2">
-        <v>0.875</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -1409,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="G28" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.78125</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -1427,13 +1447,13 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.78125</v>
       </c>
       <c r="G29" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -1448,46 +1468,46 @@
         <v>53</v>
       </c>
       <c r="F30" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G30" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F31" s="2">
-        <v>0.34375</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="G31" s="2">
-        <v>0.40625</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2">
-        <v>0.34375</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G32" s="2">
-        <v>0.54097222222222219</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -1499,103 +1519,103 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F33" s="2">
         <v>0.34375</v>
       </c>
       <c r="G33" s="2">
-        <v>0.4284722222222222</v>
+        <v>0.40625</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F34" s="2">
         <v>0.34375</v>
       </c>
       <c r="G34" s="2">
-        <v>0.59375</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2">
         <v>0.34375</v>
       </c>
       <c r="G35" s="2">
-        <v>0.46875</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2">
         <v>0.34375</v>
       </c>
       <c r="G36" s="2">
-        <v>0.46875</v>
+        <v>0.59375</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="2">
-        <v>0.5625</v>
+        <v>0.34375</v>
       </c>
       <c r="G37" s="2">
-        <v>0.625</v>
+        <v>0.46875</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F38" s="2">
-        <v>0.5625</v>
+        <v>0.34375</v>
       </c>
       <c r="G38" s="2">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -1607,10 +1627,10 @@
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2">
-        <v>0.59375</v>
+        <v>0.5625</v>
       </c>
       <c r="G39" s="2">
         <v>0.625</v>
@@ -1625,49 +1645,49 @@
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="G40" s="2">
-        <v>0.375</v>
+        <v>0.59375</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2">
-        <v>0.375</v>
+        <v>0.59375</v>
       </c>
       <c r="G41" s="2">
-        <v>0.4375</v>
+        <v>0.625</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2">
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="G42" s="2">
-        <v>0.46875</v>
+        <v>0.375</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -1679,13 +1699,13 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="G43" s="2">
-        <v>0.53125</v>
+        <v>0.4375</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -1697,49 +1717,49 @@
         <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="G44" s="2">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2">
         <v>0.34375</v>
       </c>
       <c r="G45" s="2">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="G46" s="2">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -1751,7 +1771,7 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2">
         <v>0.34375</v>
@@ -1769,7 +1789,7 @@
         <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2">
         <v>0.34375</v>
@@ -1781,37 +1801,37 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2">
         <v>0.34375</v>
       </c>
       <c r="G49" s="2">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2">
-        <v>0.5625</v>
+        <v>0.34375</v>
       </c>
       <c r="G50" s="2">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -1823,85 +1843,85 @@
         <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2">
-        <v>0.6875</v>
+        <v>0.34375</v>
       </c>
       <c r="G51" s="2">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="G52" s="2">
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2">
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="G53" s="2">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="G54" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="G55" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -1913,13 +1933,13 @@
         <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2">
-        <v>0.625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G56" s="2">
-        <v>0.6875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -1931,13 +1951,13 @@
         <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2">
         <v>0.33333333333333331</v>
       </c>
       <c r="G57" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -1949,13 +1969,13 @@
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="G58" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.6875</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -1970,10 +1990,10 @@
         <v>52</v>
       </c>
       <c r="F59" s="2">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G59" s="2">
-        <v>0.53125</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -1985,13 +2005,13 @@
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2">
-        <v>0.625</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G60" s="2">
-        <v>0.71875</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -2003,13 +2023,13 @@
         <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.53125</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -2021,13 +2041,13 @@
         <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="G62" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.71875</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -2042,10 +2062,10 @@
         <v>57</v>
       </c>
       <c r="F63" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G63" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -2060,46 +2080,46 @@
         <v>57</v>
       </c>
       <c r="F64" s="2">
-        <v>0.625</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G64" s="2">
-        <v>0.6875</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2">
-        <v>0.40625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G65" s="2">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="G66" s="2">
-        <v>0.90625</v>
+        <v>0.6875</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -2114,10 +2134,10 @@
         <v>51</v>
       </c>
       <c r="F67" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="G67" s="2">
         <v>0.4375</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0.53125</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -2129,13 +2149,13 @@
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="G68" s="2">
-        <v>0.53125</v>
+        <v>0.90625</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -2147,13 +2167,13 @@
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="G69" s="2">
-        <v>0.90625</v>
+        <v>0.53125</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -2165,13 +2185,13 @@
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2">
-        <v>0.34375</v>
+        <v>0.5</v>
       </c>
       <c r="G70" s="2">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -2183,7 +2203,7 @@
         <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2">
         <v>0.875</v>
@@ -2201,7 +2221,7 @@
         <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2">
         <v>0.34375</v>
@@ -2219,7 +2239,7 @@
         <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2">
         <v>0.875</v>
@@ -2237,7 +2257,7 @@
         <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2">
         <v>0.34375</v>
@@ -2255,7 +2275,7 @@
         <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2">
         <v>0.875</v>
@@ -2267,37 +2287,37 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2">
         <v>0.34375</v>
       </c>
       <c r="G76" s="2">
-        <v>0.40625</v>
+        <v>0.5</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2">
-        <v>0.40625</v>
+        <v>0.875</v>
       </c>
       <c r="G77" s="2">
-        <v>0.46875</v>
+        <v>0.90625</v>
       </c>
       <c r="J77" s="1"/>
     </row>
@@ -2312,10 +2332,10 @@
         <v>51</v>
       </c>
       <c r="F78" s="2">
-        <v>0.46875</v>
+        <v>0.34375</v>
       </c>
       <c r="G78" s="2">
-        <v>0.53125</v>
+        <v>0.40625</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -2330,10 +2350,10 @@
         <v>51</v>
       </c>
       <c r="F79" s="2">
-        <v>0.5625</v>
+        <v>0.40625</v>
       </c>
       <c r="G79" s="2">
-        <v>0.6875</v>
+        <v>0.46875</v>
       </c>
       <c r="J79" s="1"/>
     </row>
@@ -2345,13 +2365,13 @@
         <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2">
-        <v>0.34375</v>
+        <v>0.46875</v>
       </c>
       <c r="G80" s="2">
-        <v>0.4375</v>
+        <v>0.53125</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -2363,13 +2383,13 @@
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2">
         <v>0.5625</v>
       </c>
       <c r="G81" s="2">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
       <c r="J81" s="1"/>
     </row>
@@ -2381,13 +2401,13 @@
         <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2">
         <v>0.34375</v>
       </c>
       <c r="G82" s="2">
-        <v>0.40625</v>
+        <v>0.4375</v>
       </c>
       <c r="J82" s="1"/>
     </row>
@@ -2399,13 +2419,13 @@
         <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2">
-        <v>0.40625</v>
+        <v>0.5625</v>
       </c>
       <c r="G83" s="2">
-        <v>0.46875</v>
+        <v>0.71875</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -2420,46 +2440,46 @@
         <v>53</v>
       </c>
       <c r="F84" s="2">
-        <v>0.46875</v>
+        <v>0.34375</v>
       </c>
       <c r="G84" s="2">
-        <v>0.53125</v>
+        <v>0.40625</v>
       </c>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2">
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="G85" s="2">
-        <v>0.53125</v>
+        <v>0.46875</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
         <v>53</v>
       </c>
       <c r="F86" s="2">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="G86" s="2">
-        <v>0.6875</v>
+        <v>0.53125</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -2471,49 +2491,49 @@
         <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2">
         <v>0.34375</v>
       </c>
       <c r="G87" s="2">
-        <v>0.4375</v>
+        <v>0.53125</v>
       </c>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="G88" s="2">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2">
-        <v>0.625</v>
+        <v>0.34375</v>
       </c>
       <c r="G89" s="2">
-        <v>0.71875</v>
+        <v>0.4375</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -2525,13 +2545,13 @@
         <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="G90" s="2">
-        <v>0.46875</v>
+        <v>0.625</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -2543,13 +2563,13 @@
         <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2">
-        <v>0.34375</v>
+        <v>0.625</v>
       </c>
       <c r="G91" s="2">
-        <v>0.5</v>
+        <v>0.71875</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -2561,13 +2581,13 @@
         <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2">
         <v>0.34375</v>
       </c>
       <c r="G92" s="2">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -2579,10 +2599,10 @@
         <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2">
-        <v>0.4375</v>
+        <v>0.34375</v>
       </c>
       <c r="G93" s="2">
         <v>0.5</v>
@@ -2600,10 +2620,10 @@
         <v>53</v>
       </c>
       <c r="F94" s="2">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="G94" s="2">
-        <v>0.53125</v>
+        <v>0.4375</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -2615,7 +2635,7 @@
         <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2">
         <v>0.4375</v>
@@ -2633,49 +2653,51 @@
         <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2">
-        <v>0.34375</v>
+        <v>0.5</v>
       </c>
       <c r="G96" s="2">
-        <v>0.4375</v>
+        <v>0.53125</v>
       </c>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2">
-        <v>0.34375</v>
+        <v>0.4375</v>
       </c>
       <c r="G97" s="2">
         <v>0.5</v>
       </c>
+      <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>59</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="G98" s="2">
-        <v>0.53125</v>
-      </c>
+        <v>0.4375</v>
+      </c>
+      <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -2688,10 +2710,10 @@
         <v>51</v>
       </c>
       <c r="F99" s="2">
-        <v>0.59375</v>
+        <v>0.34375</v>
       </c>
       <c r="G99" s="2">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -2705,10 +2727,10 @@
         <v>51</v>
       </c>
       <c r="F100" s="2">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="G100" s="2">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -2719,39 +2741,38 @@
         <v>58</v>
       </c>
       <c r="E101" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2">
-        <v>0.34375</v>
+        <v>0.59375</v>
       </c>
       <c r="G101" s="2">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E102" t="s">
         <v>51</v>
       </c>
       <c r="F102" s="2">
-        <v>0.34375</v>
+        <v>0.6875</v>
       </c>
       <c r="G102" s="2">
-        <v>0.53125</v>
-      </c>
-      <c r="J102" s="1"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E103" t="s">
         <v>56</v>
@@ -2760,14 +2781,55 @@
         <v>0.34375</v>
       </c>
       <c r="G103" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="G105" s="2">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
@@ -2777,6 +2839,12 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2784,11 +2852,11 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{C4D30C36-6702-4E5C-8548-1F956C22FB30}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{8BBFC358-2389-4FE1-8703-2969FE118C10}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{FC76344C-C1EF-4272-A4BE-6A695DA90E66}"/>
-    <hyperlink ref="B102" r:id="rId5" xr:uid="{56245609-8A27-4567-90D0-ABC575BBB319}"/>
+    <hyperlink ref="B104" r:id="rId5" xr:uid="{56245609-8A27-4567-90D0-ABC575BBB319}"/>
     <hyperlink ref="B17" r:id="rId6" xr:uid="{6CF24873-3612-49F8-8F7E-ABDC5A830F4E}"/>
-    <hyperlink ref="B34" r:id="rId7" xr:uid="{03F8DA07-35D2-4173-A443-B5D47F9F05C8}"/>
-    <hyperlink ref="B36" r:id="rId8" xr:uid="{AFC45D5D-A21B-4899-8F32-4CB21439E716}"/>
-    <hyperlink ref="B52" r:id="rId9" xr:uid="{EEAFAD0A-0379-49AB-846B-667739CB394C}"/>
+    <hyperlink ref="B36" r:id="rId7" xr:uid="{03F8DA07-35D2-4173-A443-B5D47F9F05C8}"/>
+    <hyperlink ref="B38" r:id="rId8" xr:uid="{AFC45D5D-A21B-4899-8F32-4CB21439E716}"/>
+    <hyperlink ref="B54" r:id="rId9" xr:uid="{EEAFAD0A-0379-49AB-846B-667739CB394C}"/>
     <hyperlink ref="B10" r:id="rId10" xr:uid="{1CC6CCD2-5790-4401-A410-921EB68977D7}"/>
     <hyperlink ref="B11" r:id="rId11" xr:uid="{FE63F30A-CACF-4A6A-90FC-DD5A0EF5ECAB}"/>
     <hyperlink ref="B12" r:id="rId12" xr:uid="{29B76AF6-7334-4699-8B2E-CD15052047A0}"/>
@@ -2799,82 +2867,84 @@
     <hyperlink ref="B19" r:id="rId17" xr:uid="{AE05D332-195E-4225-999A-D6337E858077}"/>
     <hyperlink ref="B18" r:id="rId18" xr:uid="{D66AA3E1-5FC4-4A9A-81BA-0E1D666A7874}"/>
     <hyperlink ref="B20" r:id="rId19" xr:uid="{E2B62B56-D76B-4783-BFD0-4B9C6C48B618}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=279" xr:uid="{B5A1A540-2977-402F-A0C3-E8D27693A7A4}"/>
-    <hyperlink ref="B22" r:id="rId21" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=279" xr:uid="{99C14147-D890-409A-A241-01E23F072F7F}"/>
-    <hyperlink ref="B23" r:id="rId22" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=279" xr:uid="{C79D6F08-B79F-4480-A38E-2CF80141740D}"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{49ABE606-710C-485E-8258-11A2F233FA53}"/>
-    <hyperlink ref="B25" r:id="rId24" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{86D8C16B-00FB-4A45-9919-265D5F5F9669}"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{47F6DBD1-DEAD-4227-9542-C19011325B41}"/>
-    <hyperlink ref="B27" r:id="rId26" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{F7F85B86-701A-4332-904B-0BBB6B535A3A}"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{07676F63-9C13-4011-9968-5932CFD102EE}"/>
-    <hyperlink ref="B29" r:id="rId28" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{6BE2AB01-AACB-48A8-B857-66F44B5E393E}"/>
-    <hyperlink ref="B30" r:id="rId29" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{E1D82A22-8183-4C1F-874F-A673886186EB}"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=169" xr:uid="{57EF939F-D4F4-4401-8063-9041039CDE71}"/>
-    <hyperlink ref="B32" r:id="rId31" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=169" xr:uid="{6EC0D000-D4C2-4C66-ACF7-00B1CC76C71B}"/>
-    <hyperlink ref="B33" r:id="rId32" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=169" xr:uid="{86B01F49-1A98-4D22-A6FE-632130AB6204}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{9D097323-A42F-4B57-847A-C1E79EED69D6}"/>
-    <hyperlink ref="B37" r:id="rId34" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{31FAD4EF-7504-489E-8AAC-EC1F3312044E}"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{B7A3ECB1-EA32-4419-B0E9-C3F4D3433829}"/>
-    <hyperlink ref="B39" r:id="rId36" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{FDB859B7-B357-4A66-B718-7F4C5C638C92}"/>
-    <hyperlink ref="B40" r:id="rId37" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{311EFD4D-D46E-4CDD-AD99-83DB38F5C7EA}"/>
-    <hyperlink ref="B41" r:id="rId38" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{2582910B-3680-4D31-912E-9F0E3BBE329D}"/>
-    <hyperlink ref="B42" r:id="rId39" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{19C6E027-B8B9-4EB1-A6F5-5A4DA76B5891}"/>
-    <hyperlink ref="B43" r:id="rId40" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{710092CC-BAD6-4D3E-969E-C964308EB22F}"/>
-    <hyperlink ref="B44" r:id="rId41" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{38318745-6577-4C2A-912A-7A09B2663711}"/>
-    <hyperlink ref="B45" r:id="rId42" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{03845D29-ECF2-43CD-9126-8F878ED090E0}"/>
-    <hyperlink ref="B46" r:id="rId43" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{348F11DE-5573-407F-B1A9-A0FA6902306E}"/>
-    <hyperlink ref="B47" r:id="rId44" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{CA3FA4EC-C130-4B49-9213-F970DB577721}"/>
-    <hyperlink ref="B48" r:id="rId45" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{8660A2E9-2BFB-44D2-ACED-481185C09DB8}"/>
-    <hyperlink ref="B49" r:id="rId46" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=285" xr:uid="{63709853-C2B2-421D-93ED-D2A8A4C9A61B}"/>
-    <hyperlink ref="B50" r:id="rId47" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=285" xr:uid="{EED011A5-0450-4DCC-9A9C-5D90BC8C2339}"/>
-    <hyperlink ref="B51" r:id="rId48" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=285" xr:uid="{B0A63B98-CB58-4716-B3AB-0607F9A2FCBD}"/>
-    <hyperlink ref="B53" r:id="rId49" xr:uid="{136DF03C-73FF-43C9-B037-88E73D5DAFD2}"/>
-    <hyperlink ref="B54" r:id="rId50" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{BC94C5A4-0A69-4B83-A622-FA02B26E4460}"/>
-    <hyperlink ref="B55" r:id="rId51" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{851E3079-64BD-40CF-8BD5-E23C50A53BD7}"/>
-    <hyperlink ref="B56" r:id="rId52" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{F85ACD00-C1D1-4C57-85B4-15ADBAB2F837}"/>
-    <hyperlink ref="B57" r:id="rId53" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{338FF1C8-F466-4C96-943B-11D2CE8CE7FA}"/>
-    <hyperlink ref="B58" r:id="rId54" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{A0C686EB-BF00-4062-9ABD-373DE06899AE}"/>
-    <hyperlink ref="B59" r:id="rId55" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{22DE1EF7-3F4B-46E6-919C-263A7A1A9207}"/>
-    <hyperlink ref="B60" r:id="rId56" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{32428DDB-181F-4655-B03F-AFF6C2B2CBD9}"/>
-    <hyperlink ref="B61" r:id="rId57" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{357A62BD-9EB6-4067-9BC1-477AE398FDEA}"/>
-    <hyperlink ref="B62" r:id="rId58" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{0FE02737-E9D2-4A9A-A39A-B746A42EB0FF}"/>
-    <hyperlink ref="B63" r:id="rId59" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{16E32039-7F52-45C1-BB03-73CD102483EB}"/>
-    <hyperlink ref="B64" r:id="rId60" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{79CCB099-3067-4AAD-82DC-EB5487B4C6C0}"/>
-    <hyperlink ref="B65:B75" r:id="rId61" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=259" xr:uid="{710A19BC-EAAE-4CDE-8E1E-810ED0B3500F}"/>
-    <hyperlink ref="B76" r:id="rId62" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{EAF17653-89BC-4DBA-8AE2-A171C6FDA6D0}"/>
-    <hyperlink ref="B77" r:id="rId63" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{4B8E7E27-302B-42D3-9A1F-6B7C50257821}"/>
-    <hyperlink ref="B78" r:id="rId64" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{01E14FD8-9399-45AF-A842-23294AF78117}"/>
-    <hyperlink ref="B79" r:id="rId65" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{E746DC39-02B6-4E49-B0A1-0C47F0EACF5C}"/>
-    <hyperlink ref="B80" r:id="rId66" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{2DBE40D1-D0C5-4046-97F1-DEBDB0425193}"/>
-    <hyperlink ref="B81" r:id="rId67" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{FE17C645-3A4B-4CEE-A3E3-A882F21CACF8}"/>
-    <hyperlink ref="B82" r:id="rId68" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{D333B009-B7FC-4292-BB57-BDB9068421C9}"/>
-    <hyperlink ref="B83" r:id="rId69" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{6883E195-1AFC-4CD9-B1EC-CB2CA3B85A5A}"/>
-    <hyperlink ref="B84" r:id="rId70" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{77F368EE-7112-4C06-B66E-BF7A2138F078}"/>
-    <hyperlink ref="B85" r:id="rId71" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=374" xr:uid="{108CC2D6-1F77-463F-941B-56795299A6BD}"/>
-    <hyperlink ref="B86" r:id="rId72" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=374" xr:uid="{773572AF-7779-4349-A6E7-F5D12F159C30}"/>
-    <hyperlink ref="B87" r:id="rId73" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=374" xr:uid="{D3515D10-705F-4C46-959E-5C898CD0C359}"/>
-    <hyperlink ref="B88" r:id="rId74" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{FEA838B2-C85B-4927-B412-E3822F263B26}"/>
-    <hyperlink ref="B89" r:id="rId75" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{B566EAC7-5CD2-477E-B684-F1C64FAD3FE0}"/>
-    <hyperlink ref="B90" r:id="rId76" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{F476345F-B796-4861-B505-870C1EB5A393}"/>
-    <hyperlink ref="B91" r:id="rId77" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E4EBD9CD-487D-4546-AB06-69B568F40EC0}"/>
-    <hyperlink ref="B92" r:id="rId78" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{04605976-C8A3-495E-80DF-6B74F24EBEEC}"/>
-    <hyperlink ref="B93" r:id="rId79" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{2AD356D5-52F5-41F4-AF76-33F46D7AD5CE}"/>
-    <hyperlink ref="B94" r:id="rId80" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E4E0E041-6BAA-47DF-BC13-8FF127C77F99}"/>
-    <hyperlink ref="B95" r:id="rId81" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{9166F888-9ABF-4B12-BE37-032205EF5DF3}"/>
-    <hyperlink ref="B96" r:id="rId82" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{8A06711D-F67C-4795-A600-395D3ED0B47C}"/>
-    <hyperlink ref="B103" r:id="rId83" xr:uid="{48137E14-7800-4DDC-8A7C-5872F8AEA56E}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=279" xr:uid="{B5A1A540-2977-402F-A0C3-E8D27693A7A4}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=279" xr:uid="{99C14147-D890-409A-A241-01E23F072F7F}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=279" xr:uid="{C79D6F08-B79F-4480-A38E-2CF80141740D}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{49ABE606-710C-485E-8258-11A2F233FA53}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{86D8C16B-00FB-4A45-9919-265D5F5F9669}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{47F6DBD1-DEAD-4227-9542-C19011325B41}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{F7F85B86-701A-4332-904B-0BBB6B535A3A}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{07676F63-9C13-4011-9968-5932CFD102EE}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{6BE2AB01-AACB-48A8-B857-66F44B5E393E}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=488" xr:uid="{E1D82A22-8183-4C1F-874F-A673886186EB}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=169" xr:uid="{57EF939F-D4F4-4401-8063-9041039CDE71}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=169" xr:uid="{6EC0D000-D4C2-4C66-ACF7-00B1CC76C71B}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=169" xr:uid="{86B01F49-1A98-4D22-A6FE-632130AB6204}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{9D097323-A42F-4B57-847A-C1E79EED69D6}"/>
+    <hyperlink ref="B39" r:id="rId34" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{31FAD4EF-7504-489E-8AAC-EC1F3312044E}"/>
+    <hyperlink ref="B40" r:id="rId35" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{B7A3ECB1-EA32-4419-B0E9-C3F4D3433829}"/>
+    <hyperlink ref="B41" r:id="rId36" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{FDB859B7-B357-4A66-B718-7F4C5C638C92}"/>
+    <hyperlink ref="B42" r:id="rId37" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=203" xr:uid="{311EFD4D-D46E-4CDD-AD99-83DB38F5C7EA}"/>
+    <hyperlink ref="B43" r:id="rId38" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{2582910B-3680-4D31-912E-9F0E3BBE329D}"/>
+    <hyperlink ref="B44" r:id="rId39" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{19C6E027-B8B9-4EB1-A6F5-5A4DA76B5891}"/>
+    <hyperlink ref="B45" r:id="rId40" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{710092CC-BAD6-4D3E-969E-C964308EB22F}"/>
+    <hyperlink ref="B46" r:id="rId41" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=430" xr:uid="{38318745-6577-4C2A-912A-7A09B2663711}"/>
+    <hyperlink ref="B47" r:id="rId42" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{03845D29-ECF2-43CD-9126-8F878ED090E0}"/>
+    <hyperlink ref="B48" r:id="rId43" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{348F11DE-5573-407F-B1A9-A0FA6902306E}"/>
+    <hyperlink ref="B49" r:id="rId44" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{CA3FA4EC-C130-4B49-9213-F970DB577721}"/>
+    <hyperlink ref="B50" r:id="rId45" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=206" xr:uid="{8660A2E9-2BFB-44D2-ACED-481185C09DB8}"/>
+    <hyperlink ref="B51" r:id="rId46" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=285" xr:uid="{63709853-C2B2-421D-93ED-D2A8A4C9A61B}"/>
+    <hyperlink ref="B52" r:id="rId47" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=285" xr:uid="{EED011A5-0450-4DCC-9A9C-5D90BC8C2339}"/>
+    <hyperlink ref="B53" r:id="rId48" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=285" xr:uid="{B0A63B98-CB58-4716-B3AB-0607F9A2FCBD}"/>
+    <hyperlink ref="B55" r:id="rId49" xr:uid="{136DF03C-73FF-43C9-B037-88E73D5DAFD2}"/>
+    <hyperlink ref="B56" r:id="rId50" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{BC94C5A4-0A69-4B83-A622-FA02B26E4460}"/>
+    <hyperlink ref="B57" r:id="rId51" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{851E3079-64BD-40CF-8BD5-E23C50A53BD7}"/>
+    <hyperlink ref="B58" r:id="rId52" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{F85ACD00-C1D1-4C57-85B4-15ADBAB2F837}"/>
+    <hyperlink ref="B59" r:id="rId53" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{338FF1C8-F466-4C96-943B-11D2CE8CE7FA}"/>
+    <hyperlink ref="B60" r:id="rId54" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{A0C686EB-BF00-4062-9ABD-373DE06899AE}"/>
+    <hyperlink ref="B61" r:id="rId55" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{22DE1EF7-3F4B-46E6-919C-263A7A1A9207}"/>
+    <hyperlink ref="B62" r:id="rId56" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{32428DDB-181F-4655-B03F-AFF6C2B2CBD9}"/>
+    <hyperlink ref="B63" r:id="rId57" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{357A62BD-9EB6-4067-9BC1-477AE398FDEA}"/>
+    <hyperlink ref="B64" r:id="rId58" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{0FE02737-E9D2-4A9A-A39A-B746A42EB0FF}"/>
+    <hyperlink ref="B65" r:id="rId59" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{16E32039-7F52-45C1-BB03-73CD102483EB}"/>
+    <hyperlink ref="B66" r:id="rId60" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=400" xr:uid="{79CCB099-3067-4AAD-82DC-EB5487B4C6C0}"/>
+    <hyperlink ref="B67:B77" r:id="rId61" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=259" xr:uid="{710A19BC-EAAE-4CDE-8E1E-810ED0B3500F}"/>
+    <hyperlink ref="B78" r:id="rId62" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{EAF17653-89BC-4DBA-8AE2-A171C6FDA6D0}"/>
+    <hyperlink ref="B79" r:id="rId63" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{4B8E7E27-302B-42D3-9A1F-6B7C50257821}"/>
+    <hyperlink ref="B80" r:id="rId64" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{01E14FD8-9399-45AF-A842-23294AF78117}"/>
+    <hyperlink ref="B81" r:id="rId65" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{E746DC39-02B6-4E49-B0A1-0C47F0EACF5C}"/>
+    <hyperlink ref="B82" r:id="rId66" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{2DBE40D1-D0C5-4046-97F1-DEBDB0425193}"/>
+    <hyperlink ref="B83" r:id="rId67" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{FE17C645-3A4B-4CEE-A3E3-A882F21CACF8}"/>
+    <hyperlink ref="B84" r:id="rId68" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{D333B009-B7FC-4292-BB57-BDB9068421C9}"/>
+    <hyperlink ref="B85" r:id="rId69" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{6883E195-1AFC-4CD9-B1EC-CB2CA3B85A5A}"/>
+    <hyperlink ref="B86" r:id="rId70" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=477" xr:uid="{77F368EE-7112-4C06-B66E-BF7A2138F078}"/>
+    <hyperlink ref="B87" r:id="rId71" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=374" xr:uid="{108CC2D6-1F77-463F-941B-56795299A6BD}"/>
+    <hyperlink ref="B88" r:id="rId72" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=374" xr:uid="{773572AF-7779-4349-A6E7-F5D12F159C30}"/>
+    <hyperlink ref="B89" r:id="rId73" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=374" xr:uid="{D3515D10-705F-4C46-959E-5C898CD0C359}"/>
+    <hyperlink ref="B90" r:id="rId74" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{FEA838B2-C85B-4927-B412-E3822F263B26}"/>
+    <hyperlink ref="B91" r:id="rId75" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{B566EAC7-5CD2-477E-B684-F1C64FAD3FE0}"/>
+    <hyperlink ref="B92" r:id="rId76" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{F476345F-B796-4861-B505-870C1EB5A393}"/>
+    <hyperlink ref="B93" r:id="rId77" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E4EBD9CD-487D-4546-AB06-69B568F40EC0}"/>
+    <hyperlink ref="B94" r:id="rId78" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{04605976-C8A3-495E-80DF-6B74F24EBEEC}"/>
+    <hyperlink ref="B95" r:id="rId79" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{2AD356D5-52F5-41F4-AF76-33F46D7AD5CE}"/>
+    <hyperlink ref="B96" r:id="rId80" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{E4E0E041-6BAA-47DF-BC13-8FF127C77F99}"/>
+    <hyperlink ref="B97" r:id="rId81" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{9166F888-9ABF-4B12-BE37-032205EF5DF3}"/>
+    <hyperlink ref="B98" r:id="rId82" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=25" xr:uid="{8A06711D-F67C-4795-A600-395D3ED0B47C}"/>
+    <hyperlink ref="B105" r:id="rId83" xr:uid="{48137E14-7800-4DDC-8A7C-5872F8AEA56E}"/>
+    <hyperlink ref="B21" r:id="rId84" xr:uid="{B0E069E8-8B94-4FFB-9326-3849A719977A}"/>
+    <hyperlink ref="B22" r:id="rId85" xr:uid="{4783E46E-4EC4-4FF1-9146-1BBB69161F2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8438EFF-5E3A-4D3E-ADCA-F33A1A49F0FD}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,15 +2953,18 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2899,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2907,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2915,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2923,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +3004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +3012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +3020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2955,7 +3028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +3036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2971,7 +3044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2979,7 +3052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2987,7 +3060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +3068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +3076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>

--- a/carganolectiva-masivo.xlsx
+++ b/carganolectiva-masivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71679CF4-8D83-4AA4-A410-818F99061095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66B5E1-2E26-496C-A4CC-6AB5C03CB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">[1]cargas!$A$1:$J$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja3!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="67">
   <si>
     <t>HORAE</t>
   </si>
@@ -223,13 +224,31 @@
   </si>
   <si>
     <t>FALTA</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=110</t>
+  </si>
+  <si>
+    <t>BESSY</t>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO SANTA MARIA BESSY </t>
+  </si>
+  <si>
+    <t>CABRERA VIGIL CARLOS EUSEBIO</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_nolectiva.php&amp;id_doce=516</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +276,12 @@
       <sz val="12"/>
       <color rgb="FF212529"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -302,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,6 +338,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -904,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,12 +1318,6 @@
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
@@ -1314,12 +1336,6 @@
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
@@ -2791,12 +2807,6 @@
       <c r="B104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>16</v>
-      </c>
       <c r="E104" t="s">
         <v>52</v>
       </c>
@@ -2815,12 +2825,6 @@
       <c r="B105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>16</v>
-      </c>
       <c r="E105" t="s">
         <v>53</v>
       </c>
@@ -2832,19 +2836,243 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.90625</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.53125</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.53125</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
+      <c r="A110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" t="s">
+        <v>53</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E115" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.78125</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2933,18 +3161,21 @@
     <hyperlink ref="B105" r:id="rId83" xr:uid="{48137E14-7800-4DDC-8A7C-5872F8AEA56E}"/>
     <hyperlink ref="B21" r:id="rId84" xr:uid="{B0E069E8-8B94-4FFB-9326-3849A719977A}"/>
     <hyperlink ref="B22" r:id="rId85" xr:uid="{4783E46E-4EC4-4FF1-9146-1BBB69161F2C}"/>
+    <hyperlink ref="B116" r:id="rId86" xr:uid="{807FA614-2B67-4C50-8CFE-FC82A3085787}"/>
+    <hyperlink ref="B117" r:id="rId87" xr:uid="{249B987D-47F1-4CF4-8656-4708AAEBE268}"/>
+    <hyperlink ref="B118" r:id="rId88" xr:uid="{AB8ECEBC-99A0-4791-A5E4-629247CB1C3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8438EFF-5E3A-4D3E-ADCA-F33A1A49F0FD}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,205 +3197,226 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
+      <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C24" xr:uid="{C8438EFF-5E3A-4D3E-ADCA-F33A1A49F0FD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
+      <sortCondition ref="C1:C24"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C0993F16-2FF6-49AA-9E35-6CFD62A607FF}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{83574B88-EBB1-4503-9C89-A80D3A649C69}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7059A86C-57CD-4921-AD68-09239DA13639}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{060862AD-0A72-4F66-9E47-4CC772A70208}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{E6CE3029-0ED0-4A3D-A0CF-62473A920C08}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{6F1F6376-9F73-4A63-A405-9D38E28A4442}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{01722E71-E0EC-4720-8571-B3FD82583030}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{40E14FF0-5371-4A11-A7B0-41F9F232E64A}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{B7B3A8AD-6116-4978-B488-0FD8ECA4CC77}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{A6CF6596-B103-4713-9886-9601C490A1FC}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{FD10902C-52F4-4A16-8A5A-E84D96C0A1FA}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{023FAF04-0F65-41EE-86D4-B78087A671C9}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{F9430FB5-DFFE-4B6D-866D-85811884B916}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{C337DDF7-47D1-4341-8FE3-90BB3C2375E7}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{EF960243-5197-4383-8EAA-AE05FE69D856}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{CCCEF644-E604-4997-A6DC-8DE7365BF669}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{33D71DA6-4427-42D3-95F6-21AEE48CC9ED}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{97AF0554-C092-4959-B042-F83C0A52FA8F}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{9ABFF38E-160B-4380-92EF-F7280B803975}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{3EB9A5AC-69B3-451B-87FF-B68499C078CF}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{F49FF4D6-442D-4523-8D4B-5E189C3DAF3D}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{BD50C180-CCEB-44F6-B5F9-79B8F2BBC494}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{C0993F16-2FF6-49AA-9E35-6CFD62A607FF}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{83574B88-EBB1-4503-9C89-A80D3A649C69}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{7059A86C-57CD-4921-AD68-09239DA13639}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{060862AD-0A72-4F66-9E47-4CC772A70208}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{E6CE3029-0ED0-4A3D-A0CF-62473A920C08}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{6F1F6376-9F73-4A63-A405-9D38E28A4442}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{01722E71-E0EC-4720-8571-B3FD82583030}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{40E14FF0-5371-4A11-A7B0-41F9F232E64A}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{B7B3A8AD-6116-4978-B488-0FD8ECA4CC77}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{A6CF6596-B103-4713-9886-9601C490A1FC}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{FD10902C-52F4-4A16-8A5A-E84D96C0A1FA}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{023FAF04-0F65-41EE-86D4-B78087A671C9}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{F9430FB5-DFFE-4B6D-866D-85811884B916}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{C337DDF7-47D1-4341-8FE3-90BB3C2375E7}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{EF960243-5197-4383-8EAA-AE05FE69D856}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{CCCEF644-E604-4997-A6DC-8DE7365BF669}"/>
+    <hyperlink ref="B3" r:id="rId17" xr:uid="{33D71DA6-4427-42D3-95F6-21AEE48CC9ED}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{97AF0554-C092-4959-B042-F83C0A52FA8F}"/>
+    <hyperlink ref="B4" r:id="rId19" xr:uid="{9ABFF38E-160B-4380-92EF-F7280B803975}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{3EB9A5AC-69B3-451B-87FF-B68499C078CF}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{F49FF4D6-442D-4523-8D4B-5E189C3DAF3D}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{BD50C180-CCEB-44F6-B5F9-79B8F2BBC494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>